--- a/01_MIT_Learning/week_2/problem_sets/problem1_paying_debt_off_in_a_year.xlsx
+++ b/01_MIT_Learning/week_2/problem_sets/problem1_paying_debt_off_in_a_year.xlsx
@@ -1782,7 +1782,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1887,20 +1887,20 @@
         <v>320000</v>
       </c>
       <c r="C12" s="7">
-        <f>C8</f>
-        <v>29157.09</v>
+        <f>C7</f>
+        <v>29591.88</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ref="D12:D24" si="0">B12-C12</f>
-        <v>290842.90999999997</v>
+        <v>290408.12</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ref="E12:E24" si="1">D12*$C$3</f>
-        <v>4847.3818333333329</v>
+        <v>4840.1353333333336</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F24" si="2">D12+E12</f>
-        <v>295690.29183333332</v>
+        <v>295248.25533333333</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1909,23 +1909,23 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" ref="B13:B24" si="3">F12</f>
-        <v>295690.29183333332</v>
+        <v>295248.25533333333</v>
       </c>
       <c r="C13" s="7">
         <f>C12</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>266533.2018333333</v>
+        <v>265656.37533333333</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>4442.2200305555552</v>
+        <v>4427.6062555555554</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="2"/>
-        <v>270975.42186388886</v>
+        <v>270083.98158888891</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1934,23 +1934,23 @@
       </c>
       <c r="B14" s="7">
         <f t="shared" si="3"/>
-        <v>270975.42186388886</v>
+        <v>270083.98158888891</v>
       </c>
       <c r="C14" s="7">
         <f>C13</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>241818.33186388886</v>
+        <v>240492.10158888891</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>4030.3055310648142</v>
+        <v>4008.2016931481485</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>245848.63739495366</v>
+        <v>244500.30328203706</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1959,23 +1959,23 @@
       </c>
       <c r="B15" s="7">
         <f t="shared" si="3"/>
-        <v>245848.63739495366</v>
+        <v>244500.30328203706</v>
       </c>
       <c r="C15" s="7">
         <f>C14</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>216691.54739495367</v>
+        <v>214908.42328203705</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>3611.5257899158946</v>
+        <v>3581.8070547006173</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="2"/>
-        <v>220303.07318486957</v>
+        <v>218490.23033673767</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1984,23 +1984,23 @@
       </c>
       <c r="B16" s="7">
         <f t="shared" si="3"/>
-        <v>220303.07318486957</v>
+        <v>218490.23033673767</v>
       </c>
       <c r="C16" s="7">
         <f>C15</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>191145.98318486958</v>
+        <v>188898.35033673767</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>3185.7663864144929</v>
+        <v>3148.3058389456278</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="2"/>
-        <v>194331.74957128408</v>
+        <v>192046.65617568331</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2009,23 +2009,23 @@
       </c>
       <c r="B17" s="7">
         <f t="shared" si="3"/>
-        <v>194331.74957128408</v>
+        <v>192046.65617568331</v>
       </c>
       <c r="C17" s="7">
         <f>C16</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v>165174.65957128408</v>
+        <v>162454.77617568331</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>2752.9109928547346</v>
+        <v>2707.579602928055</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>167927.57056413882</v>
+        <v>165162.35577861135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2034,23 +2034,23 @@
       </c>
       <c r="B18" s="7">
         <f t="shared" si="3"/>
-        <v>167927.57056413882</v>
+        <v>165162.35577861135</v>
       </c>
       <c r="C18" s="7">
         <f>C17</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>138770.48056413882</v>
+        <v>135570.47577861135</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>2312.8413427356472</v>
+        <v>2259.5079296435224</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="2"/>
-        <v>141083.32190687448</v>
+        <v>137829.98370825488</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2059,23 +2059,23 @@
       </c>
       <c r="B19" s="7">
         <f t="shared" si="3"/>
-        <v>141083.32190687448</v>
+        <v>137829.98370825488</v>
       </c>
       <c r="C19" s="7">
         <f>C18</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>111926.23190687448</v>
+        <v>108238.10370825487</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>1865.437198447908</v>
+        <v>1803.9683951375812</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="2"/>
-        <v>113791.66910532239</v>
+        <v>110042.07210339245</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2084,23 +2084,23 @@
       </c>
       <c r="B20" s="7">
         <f t="shared" si="3"/>
-        <v>113791.66910532239</v>
+        <v>110042.07210339245</v>
       </c>
       <c r="C20" s="7">
         <f>C19</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
-        <v>84634.579105322395</v>
+        <v>80450.192103392445</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>1410.57631842204</v>
+        <v>1340.8365350565407</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="2"/>
-        <v>86045.155423744436</v>
+        <v>81791.028638448988</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2109,23 +2109,23 @@
       </c>
       <c r="B21" s="7">
         <f t="shared" si="3"/>
-        <v>86045.155423744436</v>
+        <v>81791.028638448988</v>
       </c>
       <c r="C21" s="7">
         <f>C20</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>56888.06542374444</v>
+        <v>52199.148638448984</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>948.134423729074</v>
+        <v>869.98581064081634</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="2"/>
-        <v>57836.199847473516</v>
+        <v>53069.134449089797</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2134,23 +2134,23 @@
       </c>
       <c r="B22" s="7">
         <f t="shared" si="3"/>
-        <v>57836.199847473516</v>
+        <v>53069.134449089797</v>
       </c>
       <c r="C22" s="7">
         <f>C21</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
-        <v>28679.109847473515</v>
+        <v>23477.254449089796</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>477.98516412455859</v>
+        <v>391.28757415149659</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="2"/>
-        <v>29157.095011598074</v>
+        <v>23868.542023241294</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2159,23 +2159,23 @@
       </c>
       <c r="B23" s="7">
         <f t="shared" si="3"/>
-        <v>29157.095011598074</v>
+        <v>23868.542023241294</v>
       </c>
       <c r="C23" s="7">
         <f>C22</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
-        <v>5.011598073906498E-3</v>
+        <v>-5723.3379767587066</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>8.3526634565108304E-5</v>
+        <v>-95.388966279311774</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="2"/>
-        <v>5.0951247084716064E-3</v>
+        <v>-5818.7269430380184</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2184,23 +2184,23 @@
       </c>
       <c r="B24" s="17">
         <f t="shared" si="3"/>
-        <v>5.0951247084716064E-3</v>
+        <v>-5818.7269430380184</v>
       </c>
       <c r="C24" s="7">
         <f>C23</f>
-        <v>29157.09</v>
+        <v>29591.88</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
-        <v>-29157.084904875293</v>
+        <v>-35410.606943038016</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>-485.95141508125488</v>
+        <v>-590.17678238396695</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>-29643.036319956547</v>
+        <v>-36000.783725421985</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
